--- a/biology/Médecine/Ostéotomie_frontofaciale/Ostéotomie_frontofaciale.xlsx
+++ b/biology/Médecine/Ostéotomie_frontofaciale/Ostéotomie_frontofaciale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9otomie_frontofaciale</t>
+          <t>Ostéotomie_frontofaciale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ostéotomie frontofaciale (synonymes : avancement frontofacial, avancement monobloc, faciocraniosynostose[1], Le Fort IV) vise à traiter les cas graves de craniosynostose en avançant à la fois le front et la position des orbites[2].  Toutefois, c'est une procédure à risque qui peut entraîner la cécité dans certains cas[3],[4]. Cette opération a été proposée pour la première fois par le docteur Fernando Ortiz-Monasterio en 1978[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ostéotomie frontofaciale (synonymes : avancement frontofacial, avancement monobloc, faciocraniosynostose, Le Fort IV) vise à traiter les cas graves de craniosynostose en avançant à la fois le front et la position des orbites.  Toutefois, c'est une procédure à risque qui peut entraîner la cécité dans certains cas,. Cette opération a été proposée pour la première fois par le docteur Fernando Ortiz-Monasterio en 1978.
 </t>
         </is>
       </c>
